--- a/Microsoft/Purview/Purview-Retail-Data-Protection-Masterclass/02-Data-Foundation/data-templates/Retail-Financial-Data.xlsx
+++ b/Microsoft/Purview/Purview-Retail-Data-Protection-Masterclass/02-Data-Foundation/data-templates/Retail-Financial-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REPO\GitHub\Projects\Microsoft\Purview\Purview-Retail-Data-Protection-Masterclass\02-Data-Foundation\data-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09EEE968-6A24-4F5E-825B-2D9F8CD9BD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59DBB380-38A2-4BDF-BC53-0FEB5325EF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{40677AFF-B5E4-4313-8281-59F28A98F640}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{F142FA5A-27DF-4512-BE2E-72C54C3EE3DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Payment Cards" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="164">
   <si>
     <t>Customer ID</t>
   </si>
@@ -61,469 +61,475 @@
     <t>C001</t>
   </si>
   <si>
+    <t>Lauren</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>6011-3336-6513-2206</t>
+  </si>
+  <si>
+    <t>Discover</t>
+  </si>
+  <si>
+    <t>lauren.smith@contoso.com</t>
+  </si>
+  <si>
+    <t>C002</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>3747-147727-40130</t>
+  </si>
+  <si>
+    <t>Amex</t>
+  </si>
+  <si>
+    <t>robert.rodriguez@contoso.com</t>
+  </si>
+  <si>
+    <t>C003</t>
+  </si>
+  <si>
+    <t>3705-465003-28226</t>
+  </si>
+  <si>
+    <t>lauren.smith@gmail.com</t>
+  </si>
+  <si>
+    <t>C004</t>
+  </si>
+  <si>
     <t>Amanda</t>
   </si>
   <si>
-    <t>Rodriguez</t>
-  </si>
-  <si>
-    <t>3741-518555-51587</t>
-  </si>
-  <si>
-    <t>Amex</t>
-  </si>
-  <si>
-    <t>amanda.rodriguez@contoso.com</t>
-  </si>
-  <si>
-    <t>C002</t>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>5124-4082-4524-2787</t>
+  </si>
+  <si>
+    <t>Mastercard</t>
+  </si>
+  <si>
+    <t>amanda.wilson@contoso.com</t>
+  </si>
+  <si>
+    <t>C005</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>4844-4614-3142-2578</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>jessica.moore@contoso.com</t>
+  </si>
+  <si>
+    <t>C006</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>5203-4474-0703-1417</t>
+  </si>
+  <si>
+    <t>lauren.davis@hotmail.com</t>
+  </si>
+  <si>
+    <t>C007</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>3704-733025-40805</t>
+  </si>
+  <si>
+    <t>emily.davis@contoso.com</t>
+  </si>
+  <si>
+    <t>C008</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>4565-4310-5433-1647</t>
+  </si>
+  <si>
+    <t>jennifer.gonzalez@contoso.com</t>
+  </si>
+  <si>
+    <t>C009</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>6011-7227-1566-3009</t>
+  </si>
+  <si>
+    <t>michael.taylor@icloud.com</t>
+  </si>
+  <si>
+    <t>C010</t>
   </si>
   <si>
     <t>Michelle</t>
   </si>
   <si>
-    <t>Moore</t>
-  </si>
-  <si>
-    <t>3725-824664-40625</t>
-  </si>
-  <si>
-    <t>michelle.moore@contoso.com</t>
-  </si>
-  <si>
-    <t>C003</t>
+    <t>5237-0072-8150-0588</t>
+  </si>
+  <si>
+    <t>michelle.taylor@contoso.com</t>
+  </si>
+  <si>
+    <t>C011</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>4271-0271-1283-3614</t>
+  </si>
+  <si>
+    <t>sarah.wilson@contoso.com</t>
+  </si>
+  <si>
+    <t>C012</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>6011-8345-0214-0321</t>
+  </si>
+  <si>
+    <t>james.garcia@hotmail.com</t>
+  </si>
+  <si>
+    <t>C013</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>4213-5061-7247-3624</t>
+  </si>
+  <si>
+    <t>james.brown@contoso.com</t>
+  </si>
+  <si>
+    <t>C014</t>
   </si>
   <si>
     <t>Daniel</t>
   </si>
   <si>
+    <t>6011-1336-5317-8771</t>
+  </si>
+  <si>
+    <t>daniel.moore@contoso.com</t>
+  </si>
+  <si>
+    <t>C015</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>5251-8564-0106-5127</t>
+  </si>
+  <si>
+    <t>amanda.jackson@yahoo.com</t>
+  </si>
+  <si>
+    <t>SSN</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>605-50-4048</t>
+  </si>
+  <si>
+    <t>(392) 491-9134</t>
+  </si>
+  <si>
+    <t>339-93-9227</t>
+  </si>
+  <si>
+    <t>(998) 566-6021</t>
+  </si>
+  <si>
+    <t>583-06-4554</t>
+  </si>
+  <si>
+    <t>(809) 627-8980</t>
+  </si>
+  <si>
+    <t>475-47-0764</t>
+  </si>
+  <si>
+    <t>(364) 682-3815</t>
+  </si>
+  <si>
+    <t>854-45-5056</t>
+  </si>
+  <si>
+    <t>(730) 639-5655</t>
+  </si>
+  <si>
+    <t>714-18-1324</t>
+  </si>
+  <si>
+    <t>(659) 762-7463</t>
+  </si>
+  <si>
+    <t>169-77-8145</t>
+  </si>
+  <si>
+    <t>(822) 765-8529</t>
+  </si>
+  <si>
+    <t>662-48-7773</t>
+  </si>
+  <si>
+    <t>(278) 970-1132</t>
+  </si>
+  <si>
+    <t>119-73-1942</t>
+  </si>
+  <si>
+    <t>(948) 722-3908</t>
+  </si>
+  <si>
+    <t>745-33-7960</t>
+  </si>
+  <si>
+    <t>(754) 205-3717</t>
+  </si>
+  <si>
+    <t>573-01-3252</t>
+  </si>
+  <si>
+    <t>(803) 519-5662</t>
+  </si>
+  <si>
+    <t>596-69-0004</t>
+  </si>
+  <si>
+    <t>(579) 870-7534</t>
+  </si>
+  <si>
+    <t>891-12-7856</t>
+  </si>
+  <si>
+    <t>(979) 933-3956</t>
+  </si>
+  <si>
+    <t>388-46-0719</t>
+  </si>
+  <si>
+    <t>(502) 544-2981</t>
+  </si>
+  <si>
+    <t>336-05-2840</t>
+  </si>
+  <si>
+    <t>(360) 664-5546</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>Bank Routing</t>
+  </si>
+  <si>
+    <t>Loyalty ID</t>
+  </si>
+  <si>
+    <t>RET-176207-4</t>
+  </si>
+  <si>
+    <t>RET-050201-7</t>
+  </si>
+  <si>
+    <t>RET-605516-5</t>
+  </si>
+  <si>
+    <t>RET-667621-0</t>
+  </si>
+  <si>
+    <t>RET-088512-3</t>
+  </si>
+  <si>
+    <t>RET-561184-3</t>
+  </si>
+  <si>
+    <t>RET-748872-4</t>
+  </si>
+  <si>
+    <t>RET-703008-6</t>
+  </si>
+  <si>
+    <t>RET-457026-5</t>
+  </si>
+  <si>
+    <t>RET-236170-4</t>
+  </si>
+  <si>
+    <t>RET-262367-1</t>
+  </si>
+  <si>
+    <t>RET-200118-1</t>
+  </si>
+  <si>
+    <t>RET-285767-8</t>
+  </si>
+  <si>
+    <t>RET-818031-6</t>
+  </si>
+  <si>
+    <t>RET-628685-5</t>
+  </si>
+  <si>
+    <t>C016</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t>Williams</t>
   </si>
   <si>
-    <t>4584-5320-7551-7567</t>
-  </si>
-  <si>
-    <t>Visa</t>
-  </si>
-  <si>
-    <t>daniel.williams@hotmail.com</t>
-  </si>
-  <si>
-    <t>C004</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>Wilson</t>
-  </si>
-  <si>
-    <t>4447-2526-8473-3660</t>
-  </si>
-  <si>
-    <t>william.wilson@contoso.com</t>
-  </si>
-  <si>
-    <t>C005</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>3767-155075-40644</t>
-  </si>
-  <si>
-    <t>william.taylor@contoso.com</t>
-  </si>
-  <si>
-    <t>C006</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>6011-5486-4855-4006</t>
-  </si>
-  <si>
-    <t>Discover</t>
-  </si>
-  <si>
-    <t>jennifer.martin@hotmail.com</t>
-  </si>
-  <si>
-    <t>C007</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>6011-6765-7417-6033</t>
-  </si>
-  <si>
-    <t>michael.moore@contoso.com</t>
-  </si>
-  <si>
-    <t>C008</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>6011-7271-5825-0319</t>
-  </si>
-  <si>
-    <t>lisa.wilson@contoso.com</t>
-  </si>
-  <si>
-    <t>C009</t>
-  </si>
-  <si>
-    <t>Martinez</t>
-  </si>
-  <si>
-    <t>5355-3856-0175-4617</t>
-  </si>
-  <si>
-    <t>Mastercard</t>
-  </si>
-  <si>
-    <t>amanda.martinez@hotmail.com</t>
-  </si>
-  <si>
-    <t>C010</t>
+    <t>david.williams@contoso.com</t>
+  </si>
+  <si>
+    <t>(915) 861-9707</t>
+  </si>
+  <si>
+    <t>250-62-3816</t>
+  </si>
+  <si>
+    <t>3751-830518-08271</t>
+  </si>
+  <si>
+    <t>RET-810862-6</t>
+  </si>
+  <si>
+    <t>C017</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>matthew.brown@contoso.com</t>
+  </si>
+  <si>
+    <t>(693) 496-5714</t>
+  </si>
+  <si>
+    <t>277-12-3688</t>
+  </si>
+  <si>
+    <t>3768-451681-05477</t>
+  </si>
+  <si>
+    <t>RET-488701-7</t>
+  </si>
+  <si>
+    <t>C018</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>thomas.wilson@icloud.com</t>
+  </si>
+  <si>
+    <t>(963) 651-3861</t>
+  </si>
+  <si>
+    <t>315-36-5589</t>
+  </si>
+  <si>
+    <t>5245-5205-4546-8364</t>
+  </si>
+  <si>
+    <t>RET-415088-7</t>
+  </si>
+  <si>
+    <t>C019</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>thomas.lopez@contoso.com</t>
+  </si>
+  <si>
+    <t>(271) 413-5182</t>
+  </si>
+  <si>
+    <t>800-39-2660</t>
+  </si>
+  <si>
+    <t>6011-0165-3812-3709</t>
+  </si>
+  <si>
+    <t>RET-648874-1</t>
+  </si>
+  <si>
+    <t>C020</t>
   </si>
   <si>
     <t>Ashley</t>
   </si>
   <si>
-    <t>4560-7188-7887-5717</t>
-  </si>
-  <si>
-    <t>ashley.williams@contoso.com</t>
-  </si>
-  <si>
-    <t>C011</t>
-  </si>
-  <si>
-    <t>3735-250045-58032</t>
-  </si>
-  <si>
-    <t>william.martin@contoso.com</t>
-  </si>
-  <si>
-    <t>C012</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>5115-5527-3742-1252</t>
-  </si>
-  <si>
-    <t>john.martin@hotmail.com</t>
-  </si>
-  <si>
-    <t>C013</t>
-  </si>
-  <si>
-    <t>Gonzalez</t>
-  </si>
-  <si>
-    <t>5381-8566-1738-0675</t>
-  </si>
-  <si>
-    <t>william.gonzalez@contoso.com</t>
-  </si>
-  <si>
-    <t>C014</t>
-  </si>
-  <si>
-    <t>Davis</t>
-  </si>
-  <si>
-    <t>3738-762562-46068</t>
-  </si>
-  <si>
-    <t>ashley.davis@contoso.com</t>
-  </si>
-  <si>
-    <t>C015</t>
-  </si>
-  <si>
-    <t>Richard</t>
-  </si>
-  <si>
-    <t>Garcia</t>
-  </si>
-  <si>
-    <t>3725-266741-87327</t>
-  </si>
-  <si>
-    <t>richard.garcia@icloud.com</t>
-  </si>
-  <si>
-    <t>SSN</t>
-  </si>
-  <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
-    <t>021-08-2161</t>
-  </si>
-  <si>
-    <t>(411) 846-7898</t>
-  </si>
-  <si>
-    <t>026-35-7420</t>
-  </si>
-  <si>
-    <t>(923) 559-7711</t>
-  </si>
-  <si>
-    <t>849-74-2296</t>
-  </si>
-  <si>
-    <t>(991) 326-8892</t>
-  </si>
-  <si>
-    <t>528-89-0681</t>
-  </si>
-  <si>
-    <t>(602) 635-5764</t>
-  </si>
-  <si>
-    <t>279-85-6302</t>
-  </si>
-  <si>
-    <t>(729) 662-6103</t>
-  </si>
-  <si>
-    <t>336-31-0519</t>
-  </si>
-  <si>
-    <t>(236) 215-7481</t>
-  </si>
-  <si>
-    <t>455-89-1533</t>
-  </si>
-  <si>
-    <t>(361) 291-6763</t>
-  </si>
-  <si>
-    <t>746-53-8112</t>
-  </si>
-  <si>
-    <t>(356) 433-4305</t>
-  </si>
-  <si>
-    <t>410-58-0030</t>
-  </si>
-  <si>
-    <t>(259) 861-3608</t>
-  </si>
-  <si>
-    <t>741-39-2643</t>
-  </si>
-  <si>
-    <t>(357) 429-1836</t>
-  </si>
-  <si>
-    <t>081-45-9004</t>
-  </si>
-  <si>
-    <t>(331) 481-3146</t>
-  </si>
-  <si>
-    <t>609-04-6884</t>
-  </si>
-  <si>
-    <t>(667) 349-1479</t>
-  </si>
-  <si>
-    <t>334-47-6133</t>
-  </si>
-  <si>
-    <t>(951) 777-2867</t>
-  </si>
-  <si>
-    <t>040-71-2780</t>
-  </si>
-  <si>
-    <t>(996) 606-9059</t>
-  </si>
-  <si>
-    <t>501-37-4569</t>
-  </si>
-  <si>
-    <t>(792) 749-1382</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Credit Card</t>
-  </si>
-  <si>
-    <t>Bank Routing</t>
-  </si>
-  <si>
-    <t>Loyalty ID</t>
-  </si>
-  <si>
-    <t>RET-312831-3</t>
-  </si>
-  <si>
-    <t>RET-752764-0</t>
-  </si>
-  <si>
-    <t>RET-562286-2</t>
-  </si>
-  <si>
-    <t>RET-325637-7</t>
-  </si>
-  <si>
-    <t>RET-356134-7</t>
-  </si>
-  <si>
-    <t>RET-415006-8</t>
-  </si>
-  <si>
-    <t>RET-533056-8</t>
-  </si>
-  <si>
-    <t>RET-450365-1</t>
-  </si>
-  <si>
-    <t>RET-330213-0</t>
-  </si>
-  <si>
-    <t>RET-884235-1</t>
-  </si>
-  <si>
-    <t>RET-757684-8</t>
-  </si>
-  <si>
-    <t>RET-048636-6</t>
-  </si>
-  <si>
-    <t>RET-225565-6</t>
-  </si>
-  <si>
-    <t>RET-018311-1</t>
-  </si>
-  <si>
-    <t>RET-327450-7</t>
-  </si>
-  <si>
-    <t>C016</t>
-  </si>
-  <si>
-    <t>Emily</t>
-  </si>
-  <si>
-    <t>Miller</t>
-  </si>
-  <si>
-    <t>emily.miller@contoso.com</t>
-  </si>
-  <si>
-    <t>(734) 252-4320</t>
-  </si>
-  <si>
-    <t>303-72-7848</t>
-  </si>
-  <si>
-    <t>5133-2526-0478-4162</t>
-  </si>
-  <si>
-    <t>RET-148185-5</t>
-  </si>
-  <si>
-    <t>C017</t>
-  </si>
-  <si>
-    <t>Matthew</t>
-  </si>
-  <si>
-    <t>matthew.moore@contoso.com</t>
-  </si>
-  <si>
-    <t>(221) 522-5534</t>
-  </si>
-  <si>
-    <t>013-87-3561</t>
-  </si>
-  <si>
-    <t>6011-3133-0103-0214</t>
-  </si>
-  <si>
-    <t>RET-231816-8</t>
-  </si>
-  <si>
-    <t>C018</t>
-  </si>
-  <si>
-    <t>ashley.davis@outlook.com</t>
-  </si>
-  <si>
-    <t>(823) 274-5457</t>
-  </si>
-  <si>
-    <t>308-74-2357</t>
-  </si>
-  <si>
-    <t>6011-5871-5880-1152</t>
-  </si>
-  <si>
-    <t>RET-658121-5</t>
-  </si>
-  <si>
-    <t>C019</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>david.jackson@contoso.com</t>
-  </si>
-  <si>
-    <t>(564) 452-4776</t>
-  </si>
-  <si>
-    <t>742-97-5147</t>
-  </si>
-  <si>
-    <t>4655-5216-1006-3409</t>
-  </si>
-  <si>
-    <t>RET-367346-7</t>
-  </si>
-  <si>
-    <t>C020</t>
-  </si>
-  <si>
-    <t>Lopez</t>
-  </si>
-  <si>
-    <t>emily.lopez@contoso.com</t>
-  </si>
-  <si>
-    <t>(740) 280-9819</t>
-  </si>
-  <si>
-    <t>273-36-8474</t>
-  </si>
-  <si>
-    <t>6011-6131-2016-2466</t>
-  </si>
-  <si>
-    <t>RET-668731-6</t>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>ashley.johnson@contoso.com</t>
+  </si>
+  <si>
+    <t>(281) 451-4378</t>
+  </si>
+  <si>
+    <t>397-25-5027</t>
+  </si>
+  <si>
+    <t>5158-4423-0368-1083</t>
+  </si>
+  <si>
+    <t>RET-742320-4</t>
   </si>
 </sst>
 </file>
@@ -923,7 +929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7F4F16-1564-4B51-8264-B9978CB47EE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88BA8B9-E6F4-4A22-9AAD-67BB22432EBB}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -935,7 +941,7 @@
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -992,58 +998,58 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1052,18 +1058,18 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -1072,47 +1078,47 @@
         <v>35</v>
       </c>
       <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
         <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
         <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
         <v>45</v>
@@ -1123,16 +1129,16 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
         <v>50</v>
@@ -1146,13 +1152,13 @@
         <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
         <v>54</v>
@@ -1163,99 +1169,99 @@
         <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1264,7 +1270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29436F3E-602F-478B-88B9-3383690B3472}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92D6BA0-10B1-4FE6-9244-72E8660B71CD}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1276,7 +1282,7 @@
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1290,10 +1296,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
@@ -1310,10 +1316,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -1330,130 +1336,130 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
         <v>45</v>
@@ -1464,16 +1470,16 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
         <v>50</v>
@@ -1487,13 +1493,13 @@
         <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F11" t="s">
         <v>54</v>
@@ -1504,99 +1510,99 @@
         <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1605,7 +1611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7354525-C57A-4405-9501-01E1908855D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD15346D-318B-4162-9F48-9E98A9DD2224}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1615,7 +1621,7 @@
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -1637,19 +1643,19 @@
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1666,19 +1672,19 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
         <v>78</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2">
-        <v>145557876</v>
+        <v>212524838</v>
       </c>
       <c r="I2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1692,196 +1698,196 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
         <v>80</v>
-      </c>
-      <c r="F3" t="s">
-        <v>79</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
       <c r="H3">
-        <v>841347377</v>
+        <v>310308176</v>
       </c>
       <c r="I3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
       <c r="H4">
-        <v>353857665</v>
+        <v>661028505</v>
       </c>
       <c r="I4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
       <c r="H5">
-        <v>573257311</v>
+        <v>708747422</v>
       </c>
       <c r="I5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" t="s">
         <v>86</v>
-      </c>
-      <c r="F6" t="s">
-        <v>85</v>
       </c>
       <c r="G6" t="s">
         <v>30</v>
       </c>
       <c r="H6">
-        <v>871025760</v>
+        <v>344512868</v>
       </c>
       <c r="I6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" t="s">
         <v>88</v>
-      </c>
-      <c r="F7" t="s">
-        <v>87</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
       </c>
       <c r="H7">
-        <v>888237147</v>
+        <v>42683438</v>
       </c>
       <c r="I7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
       <c r="H8">
-        <v>376760508</v>
+        <v>36667545</v>
       </c>
       <c r="I8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>45</v>
       </c>
       <c r="E9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" t="s">
         <v>92</v>
-      </c>
-      <c r="F9" t="s">
-        <v>91</v>
       </c>
       <c r="G9" t="s">
         <v>44</v>
       </c>
       <c r="H9">
-        <v>357485081</v>
+        <v>770642858</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1889,28 +1895,28 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
         <v>50</v>
       </c>
       <c r="E10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" t="s">
         <v>94</v>
       </c>
-      <c r="F10" t="s">
-        <v>93</v>
-      </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10">
-        <v>612462472</v>
+        <v>843461418</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1921,25 +1927,25 @@
         <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>54</v>
       </c>
       <c r="E11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" t="s">
         <v>96</v>
-      </c>
-      <c r="F11" t="s">
-        <v>95</v>
       </c>
       <c r="G11" t="s">
         <v>53</v>
       </c>
       <c r="H11">
-        <v>474285260</v>
+        <v>256177166</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1947,289 +1953,289 @@
         <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" t="s">
         <v>57</v>
       </c>
-      <c r="E12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" t="s">
-        <v>56</v>
-      </c>
       <c r="H12">
-        <v>54222057</v>
+        <v>152723520</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" t="s">
         <v>100</v>
       </c>
-      <c r="F13" t="s">
-        <v>99</v>
-      </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H13">
-        <v>137221825</v>
+        <v>116057488</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" t="s">
         <v>102</v>
       </c>
-      <c r="F14" t="s">
-        <v>101</v>
-      </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H14">
-        <v>118001402</v>
+        <v>857685534</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" t="s">
         <v>104</v>
       </c>
-      <c r="F15" t="s">
-        <v>103</v>
-      </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H15">
-        <v>758538672</v>
+        <v>524010687</v>
       </c>
       <c r="I15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" t="s">
         <v>74</v>
       </c>
-      <c r="E16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" t="s">
-        <v>73</v>
-      </c>
       <c r="H16">
-        <v>562515442</v>
+        <v>677742220</v>
       </c>
       <c r="I16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H17">
-        <v>211864050</v>
+        <v>451770028</v>
       </c>
       <c r="I17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H18">
-        <v>716888814</v>
+        <v>805050504</v>
       </c>
       <c r="I18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E19" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F19" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H19">
-        <v>51511610</v>
+        <v>716684338</v>
       </c>
       <c r="I19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H20">
-        <v>76220567</v>
+        <v>626588383</v>
       </c>
       <c r="I20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="C21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E21" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G21" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H21">
-        <v>785316866</v>
+        <v>874138006</v>
       </c>
       <c r="I21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
